--- a/metadata/utils/utils.xlsx
+++ b/metadata/utils/utils.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="24240" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="24240" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LDM  Objects" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="315">
   <si>
     <t>System Name</t>
   </si>
@@ -963,6 +963,9 @@
   </si>
   <si>
     <t>IFS Document Name</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1104,15 +1107,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1413,7 +1416,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1436,10 +1439,10 @@
       <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
@@ -1449,10 +1452,10 @@
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
@@ -1476,10 +1479,10 @@
       <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1794,10 +1797,10 @@
       <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
@@ -1807,10 +1810,10 @@
       <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
@@ -1840,10 +1843,10 @@
       <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2534,8 +2537,8 @@
       <c r="B1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -2544,8 +2547,8 @@
       <c r="B2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -2561,190 +2564,190 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="22"/>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2760,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2821,6 +2824,9 @@
       <c r="B6" t="s">
         <v>157</v>
       </c>
+      <c r="C6" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -3327,7 +3333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/metadata/utils/utils.xlsx
+++ b/metadata/utils/utils.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="24240" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="24240" windowHeight="12300" tabRatio="904" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="LDM  Objects" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,22 @@
     <sheet name="ESB_XSD_Fields" sheetId="5" r:id="rId4"/>
     <sheet name="VM_Master" sheetId="6" r:id="rId5"/>
     <sheet name="IFS_Master" sheetId="7" r:id="rId6"/>
+    <sheet name="Mapping_IFS_XSD" sheetId="8" r:id="rId7"/>
+    <sheet name="Objects" sheetId="9" r:id="rId8"/>
+    <sheet name="Mappings" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Mapping_IFS_XSD!$A$1:$D$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet2!$A$1:$F$76</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="526">
   <si>
     <t>System Name</t>
   </si>
@@ -966,13 +975,646 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Comments'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Attribute_Name_ABS_D </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Target_Attribute_Name_ABS_D'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Attribute_Name_ABS_L </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;LookupField 'Target_Attribute_Name_ABS_L'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Attribute_Name_Duplicate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Target_Attribute_Name_Duplicate'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Source_Attribute_Name_Duplicate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Source_Attribute_Name_Duplicate'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Source_Entity_Name_Duplicate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Source_Entity_Name_Duplicate'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Mapping_x005F_x0020_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Mapping_x005F_x0020_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Source_Attribute_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;LookupField 'Source_Attribute_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  MDR_Phase </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'MDR_Phase'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Transformation_Mapping_Rule </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Transformation_Mapping_Rule'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Last_Update_Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;DateTimeField 'Last_Update_Date'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Source_System_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;ChoiceField 'Source_System_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Entity_Name_Duplicate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Target_Entity_Name_Duplicate'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Attribute_x005F_x0020_Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Attribute_x005F_x0020_Description'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Business_x005F_x0020_Rule </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Business_x005F_x0020_Rule'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Entity_Name_ABS_L </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;LookupField 'Target_Entity_Name_ABS_L'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Action'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Entity_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;LookupField 'Target_Entity_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Entity_Name_ABS_D </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Target_Entity_Name_ABS_D'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Modified_By </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Modified_By'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_System_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;ChoiceField 'Target_System_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Instance_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Target_Instance_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Source_Entity_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;LookupField 'Source_Entity_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Entity_Name_ABS_Possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;TextField 'Target_Entity_Name_ABS_Possible'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key:  Target_Attribute_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value:  &lt;LookupField 'Target_Attribute_Name'&gt;</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Application_Name</t>
+  </si>
+  <si>
+    <t>Project_Phase</t>
+  </si>
+  <si>
+    <t>Source_Entity_Name_L</t>
+  </si>
+  <si>
+    <t>Source_Entity_Name_D</t>
+  </si>
+  <si>
+    <t>Source_Attribute_Name_L</t>
+  </si>
+  <si>
+    <t>Source_Attribute_Name_D</t>
+  </si>
+  <si>
+    <t>Mapping_VM_ESB_IFS</t>
+  </si>
+  <si>
+    <t>Mapping_VM_ESB_XSD</t>
+  </si>
+  <si>
+    <t>Mapping_BTICC_XSD_ABS_XSD</t>
+  </si>
+  <si>
+    <t>ABS_XSD_FIELDS</t>
+  </si>
+  <si>
+    <t>ESB_IFS_Fields</t>
+  </si>
+  <si>
+    <t>ESB_XSD_Fields</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>_EditMenuTableStart</t>
+  </si>
+  <si>
+    <t>HTML_x005F_x0020_File_x005F_x0020_Type</t>
+  </si>
+  <si>
+    <t>WorkflowInstanceID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>_CopySource</t>
+  </si>
+  <si>
+    <t>BaseName</t>
+  </si>
+  <si>
+    <t>_IsCurrentVersion</t>
+  </si>
+  <si>
+    <t>ServerUrl</t>
+  </si>
+  <si>
+    <t>_UIVersionString</t>
+  </si>
+  <si>
+    <t>Target_Attribute_Name</t>
+  </si>
+  <si>
+    <t>_ModerationStatus</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>EncodedAbsUrl</t>
+  </si>
+  <si>
+    <t>FileDirRef</t>
+  </si>
+  <si>
+    <t>FileRef</t>
+  </si>
+  <si>
+    <t>Target_Attribute_Name_ABS_L</t>
+  </si>
+  <si>
+    <t>_UIVersion</t>
+  </si>
+  <si>
+    <t>Source_Attribute_Name_Duplicate</t>
+  </si>
+  <si>
+    <t>LinkTitle</t>
+  </si>
+  <si>
+    <t>ContentTypeId</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Source_Entity_Name_Duplicate</t>
+  </si>
+  <si>
+    <t>Mapping_x005F_x0020_Name</t>
+  </si>
+  <si>
+    <t>ContentType</t>
+  </si>
+  <si>
+    <t>Last_x005F_x0020_Modified</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>owshiddenversion</t>
+  </si>
+  <si>
+    <t>_EditMenuTableEnd</t>
+  </si>
+  <si>
+    <t>DocIcon</t>
+  </si>
+  <si>
+    <t>ProgId</t>
+  </si>
+  <si>
+    <t>InstanceID</t>
+  </si>
+  <si>
+    <t>LinkTitleNoMenu</t>
+  </si>
+  <si>
+    <t>FileLeafRef</t>
+  </si>
+  <si>
+    <t>Created_x005F_x0020_Date</t>
+  </si>
+  <si>
+    <t>Target_Attribute_Name_Duplicate</t>
+  </si>
+  <si>
+    <t>Attribute_x005F_x0020_Description</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>SelectTitle</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Business_x005F_x0020_Rule</t>
+  </si>
+  <si>
+    <t>PermMask</t>
+  </si>
+  <si>
+    <t>File_x005F_x0020_Type</t>
+  </si>
+  <si>
+    <t>LinkFilenameNoMenu</t>
+  </si>
+  <si>
+    <t>UniqueId</t>
+  </si>
+  <si>
+    <t>Target_Entity_Name</t>
+  </si>
+  <si>
+    <t>WorkflowVersion</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Target_Entity_Name_ABS_L</t>
+  </si>
+  <si>
+    <t>_HasCopyDestinations</t>
+  </si>
+  <si>
+    <t>LinkFilename</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>FSObjType</t>
+  </si>
+  <si>
+    <t>_ModerationComments</t>
+  </si>
+  <si>
+    <t>Target_Entity_Name_ABS_Possible</t>
+  </si>
+  <si>
+    <t>Target_Entity_Name_Duplicate</t>
+  </si>
+  <si>
+    <t>ScopeId</t>
+  </si>
+  <si>
+    <t>_Level</t>
+  </si>
+  <si>
+    <t>MetaInfo</t>
+  </si>
+  <si>
+    <t>Target_Attribute_Name_ABS_Object_D</t>
+  </si>
+  <si>
+    <t>Target_Attribute_Name_ABS_Object_L</t>
+  </si>
+  <si>
+    <t>Target_Entity_Name_ABS_Object_D</t>
+  </si>
+  <si>
+    <t>Target_Entity_Name_ABS_Object_L</t>
+  </si>
+  <si>
+    <t>Not required - to be deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'Source_Attribute_Name_L'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;IntegerField '_Level'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;UnknownField 'WorkflowInstanceID'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField '_CopySource'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Source_Attribute_Name_D'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField '_EditMenuTableStart'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Comments'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField '_UIVersionString'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ChoiceField 'Target_Instance_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ModerationStatusField '_ModerationStatus'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'Target_Attribute_Name_L'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'EncodedAbsUrl'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'FileDirRef'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'Target_Attribute_Name_ABS_Object0'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'LinkTitle'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'FileRef'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;IntegerField '_UIVersion'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'Target_Entity_Name_L'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'Source_Entity_Name_L'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;UnknownField 'ContentTypeId'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Target_Attribute_Name_D'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'Last_x005F_x0020_Modified'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Target_Entity_Name_D'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;UserField 'Author'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'ServerUrl'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Source_Entity_Name_D'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;NumberField 'Order'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;IntegerField 'InstanceID'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'MDR_Phase'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'HTML_x005F_x0020_File_x005F_x0020_Type'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Mapping_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Transformation_Mapping_Rule'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;DateTimeField 'Last_Update_Date'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;BooleanField '_IsCurrentVersion'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Target_Attribute_Name_ABS_Object'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'BaseName'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Target_Entity_Name_ABS_Object_D'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'DocIcon'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'LinkTitleNoMenu'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;UnknownField 'FileLeafRef'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ChoiceField 'Source_System_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'Created_x005F_x0020_Date'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'Target_Entity_Name_ABS_Object_L'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Business_Rule'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;DateTimeField 'Created'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Edit'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'SelectTitle'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;DateTimeField 'Modified'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'MetaInfo'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'PermMask'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'File_x005F_x0020_Type'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'LinkFilenameNoMenu'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'UniqueId'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Action'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'ContentType'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;IntegerField 'WorkflowVersion'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;UnknownField 'GUID'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;CounterField 'ID'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Attribute_Description'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;UnknownField 'Attachments'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;BooleanField '_HasCopyDestinations'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Modified_By'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Parent'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'FSObjType'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField '_EditMenuTableEnd'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField '_ModerationComments'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ChoiceField 'Target_System_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;IntegerField 'owshiddenversion'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'ScopeId'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;LookupField 'ProgId'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ChoiceField 'Source_Instance_Name'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'Owner'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;TextField 'LinkFilename'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;UserField 'Editor'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value</t>
+  </si>
+  <si>
+    <t>Target_Attribute_Name_ABS_Object0</t>
+  </si>
+  <si>
+    <t>Target_Attribute_Name_ABS_Object</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,8 +1645,28 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,6 +1715,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1081,7 +1761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1110,6 +1790,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1439,10 +2131,10 @@
       <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
@@ -1452,10 +2144,10 @@
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
@@ -1479,10 +2171,10 @@
       <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1770,12 +2462,1348 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1">
+      <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
+      <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1">
+      <c r="A4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1">
+      <c r="A5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1">
+      <c r="A6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1">
+      <c r="A9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1">
+      <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1">
+      <c r="A11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1">
+      <c r="A12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1">
+      <c r="A15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" t="s">
+        <v>523</v>
+      </c>
+      <c r="D15" t="s">
+        <v>461</v>
+      </c>
+      <c r="E15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C16" t="s">
+        <v>523</v>
+      </c>
+      <c r="D16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1">
+      <c r="A17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1">
+      <c r="A18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" t="s">
+        <v>464</v>
+      </c>
+      <c r="E18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1">
+      <c r="A19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1">
+      <c r="A20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>523</v>
+      </c>
+      <c r="D20" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1">
+      <c r="A21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" t="s">
+        <v>523</v>
+      </c>
+      <c r="D21" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1">
+      <c r="A22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1">
+      <c r="A23" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>523</v>
+      </c>
+      <c r="D23" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1">
+      <c r="A24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1">
+      <c r="A25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1">
+      <c r="A26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" t="s">
+        <v>472</v>
+      </c>
+      <c r="E26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1">
+      <c r="A27" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C27" t="s">
+        <v>523</v>
+      </c>
+      <c r="D27" t="s">
+        <v>473</v>
+      </c>
+      <c r="E27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1">
+      <c r="A28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" t="s">
+        <v>523</v>
+      </c>
+      <c r="D28" t="s">
+        <v>474</v>
+      </c>
+      <c r="E28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1">
+      <c r="A29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" t="s">
+        <v>523</v>
+      </c>
+      <c r="D29" t="s">
+        <v>475</v>
+      </c>
+      <c r="E29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1">
+      <c r="A30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1">
+      <c r="A31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>523</v>
+      </c>
+      <c r="D31" t="s">
+        <v>477</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1">
+      <c r="A32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" t="s">
+        <v>523</v>
+      </c>
+      <c r="D32" t="s">
+        <v>478</v>
+      </c>
+      <c r="E32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1">
+      <c r="A33" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" t="s">
+        <v>479</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1">
+      <c r="A34" t="s">
+        <v>364</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>523</v>
+      </c>
+      <c r="D34" t="s">
+        <v>480</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1">
+      <c r="A35" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D35" t="s">
+        <v>481</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1">
+      <c r="A36" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" t="s">
+        <v>523</v>
+      </c>
+      <c r="D36" t="s">
+        <v>482</v>
+      </c>
+      <c r="E36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C37" t="s">
+        <v>523</v>
+      </c>
+      <c r="D37" t="s">
+        <v>483</v>
+      </c>
+      <c r="E37" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
+      <c r="A38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" t="s">
+        <v>388</v>
+      </c>
+      <c r="C38" t="s">
+        <v>523</v>
+      </c>
+      <c r="D38" t="s">
+        <v>484</v>
+      </c>
+      <c r="E38" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" t="s">
+        <v>445</v>
+      </c>
+      <c r="C39" t="s">
+        <v>523</v>
+      </c>
+      <c r="D39" t="s">
+        <v>485</v>
+      </c>
+      <c r="E39" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1">
+      <c r="A40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" t="s">
+        <v>523</v>
+      </c>
+      <c r="D40" t="s">
+        <v>486</v>
+      </c>
+      <c r="E40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1">
+      <c r="A41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41" t="s">
+        <v>523</v>
+      </c>
+      <c r="D41" t="s">
+        <v>487</v>
+      </c>
+      <c r="E41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1">
+      <c r="A42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" t="s">
+        <v>523</v>
+      </c>
+      <c r="D42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E42" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1">
+      <c r="A43" t="s">
+        <v>364</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>523</v>
+      </c>
+      <c r="D43" t="s">
+        <v>489</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1">
+      <c r="A44" t="s">
+        <v>364</v>
+      </c>
+      <c r="B44" t="s">
+        <v>416</v>
+      </c>
+      <c r="C44" t="s">
+        <v>523</v>
+      </c>
+      <c r="D44" t="s">
+        <v>490</v>
+      </c>
+      <c r="E44" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>364</v>
+      </c>
+      <c r="B45" t="s">
+        <v>446</v>
+      </c>
+      <c r="C45" t="s">
+        <v>523</v>
+      </c>
+      <c r="D45" t="s">
+        <v>491</v>
+      </c>
+      <c r="E45" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1">
+      <c r="A46" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>523</v>
+      </c>
+      <c r="D46" t="s">
+        <v>492</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1">
+      <c r="A47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47" t="s">
+        <v>523</v>
+      </c>
+      <c r="D47" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1">
+      <c r="A48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" t="s">
+        <v>523</v>
+      </c>
+      <c r="D48" t="s">
+        <v>494</v>
+      </c>
+      <c r="E48" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1">
+      <c r="A49" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49" t="s">
+        <v>421</v>
+      </c>
+      <c r="C49" t="s">
+        <v>523</v>
+      </c>
+      <c r="D49" t="s">
+        <v>495</v>
+      </c>
+      <c r="E49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1">
+      <c r="A50" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" t="s">
+        <v>523</v>
+      </c>
+      <c r="D50" t="s">
+        <v>496</v>
+      </c>
+      <c r="E50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
+      <c r="A51" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>442</v>
+      </c>
+      <c r="C51" t="s">
+        <v>523</v>
+      </c>
+      <c r="D51" t="s">
+        <v>497</v>
+      </c>
+      <c r="E51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1">
+      <c r="A52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B52" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" t="s">
+        <v>523</v>
+      </c>
+      <c r="D52" t="s">
+        <v>498</v>
+      </c>
+      <c r="E52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1">
+      <c r="A53" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" t="s">
+        <v>425</v>
+      </c>
+      <c r="C53" t="s">
+        <v>523</v>
+      </c>
+      <c r="D53" t="s">
+        <v>499</v>
+      </c>
+      <c r="E53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1">
+      <c r="A54" t="s">
+        <v>364</v>
+      </c>
+      <c r="B54" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" t="s">
+        <v>523</v>
+      </c>
+      <c r="D54" t="s">
+        <v>500</v>
+      </c>
+      <c r="E54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1">
+      <c r="A55" t="s">
+        <v>364</v>
+      </c>
+      <c r="B55" t="s">
+        <v>427</v>
+      </c>
+      <c r="C55" t="s">
+        <v>523</v>
+      </c>
+      <c r="D55" t="s">
+        <v>501</v>
+      </c>
+      <c r="E55" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1">
+      <c r="A56" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>523</v>
+      </c>
+      <c r="D56" t="s">
+        <v>502</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1">
+      <c r="A57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B57" t="s">
+        <v>406</v>
+      </c>
+      <c r="C57" t="s">
+        <v>523</v>
+      </c>
+      <c r="D57" t="s">
+        <v>503</v>
+      </c>
+      <c r="E57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1">
+      <c r="A58" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" t="s">
+        <v>429</v>
+      </c>
+      <c r="C58" t="s">
+        <v>523</v>
+      </c>
+      <c r="D58" t="s">
+        <v>504</v>
+      </c>
+      <c r="E58" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" t="s">
+        <v>523</v>
+      </c>
+      <c r="D59" t="s">
+        <v>505</v>
+      </c>
+      <c r="E59" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1">
+      <c r="A60" t="s">
+        <v>364</v>
+      </c>
+      <c r="B60" t="s">
+        <v>431</v>
+      </c>
+      <c r="C60" t="s">
+        <v>523</v>
+      </c>
+      <c r="D60" t="s">
+        <v>506</v>
+      </c>
+      <c r="E60" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1">
+      <c r="A61" t="s">
+        <v>364</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>523</v>
+      </c>
+      <c r="D61" t="s">
+        <v>507</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1">
+      <c r="A62" t="s">
+        <v>364</v>
+      </c>
+      <c r="B62" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" t="s">
+        <v>523</v>
+      </c>
+      <c r="D62" t="s">
+        <v>508</v>
+      </c>
+      <c r="E62" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1">
+      <c r="A63" t="s">
+        <v>364</v>
+      </c>
+      <c r="B63" t="s">
+        <v>433</v>
+      </c>
+      <c r="C63" t="s">
+        <v>523</v>
+      </c>
+      <c r="D63" t="s">
+        <v>509</v>
+      </c>
+      <c r="E63" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1">
+      <c r="A64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>523</v>
+      </c>
+      <c r="D64" t="s">
+        <v>510</v>
+      </c>
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1">
+      <c r="A65" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>523</v>
+      </c>
+      <c r="D65" t="s">
+        <v>511</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1">
+      <c r="A66" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" t="s">
+        <v>436</v>
+      </c>
+      <c r="C66" t="s">
+        <v>523</v>
+      </c>
+      <c r="D66" t="s">
+        <v>512</v>
+      </c>
+      <c r="E66" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1">
+      <c r="A67" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" t="s">
+        <v>523</v>
+      </c>
+      <c r="D67" t="s">
+        <v>513</v>
+      </c>
+      <c r="E67" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1">
+      <c r="A68" t="s">
+        <v>364</v>
+      </c>
+      <c r="B68" t="s">
+        <v>437</v>
+      </c>
+      <c r="C68" t="s">
+        <v>523</v>
+      </c>
+      <c r="D68" t="s">
+        <v>514</v>
+      </c>
+      <c r="E68" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1">
+      <c r="A69" t="s">
+        <v>364</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>523</v>
+      </c>
+      <c r="D69" t="s">
+        <v>515</v>
+      </c>
+      <c r="E69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1">
+      <c r="A70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B70" t="s">
+        <v>409</v>
+      </c>
+      <c r="C70" t="s">
+        <v>523</v>
+      </c>
+      <c r="D70" t="s">
+        <v>516</v>
+      </c>
+      <c r="E70" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1">
+      <c r="A71" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" t="s">
+        <v>440</v>
+      </c>
+      <c r="C71" t="s">
+        <v>523</v>
+      </c>
+      <c r="D71" t="s">
+        <v>517</v>
+      </c>
+      <c r="E71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1">
+      <c r="A72" t="s">
+        <v>364</v>
+      </c>
+      <c r="B72" t="s">
+        <v>412</v>
+      </c>
+      <c r="C72" t="s">
+        <v>523</v>
+      </c>
+      <c r="D72" t="s">
+        <v>518</v>
+      </c>
+      <c r="E72" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1">
+      <c r="A73" t="s">
+        <v>364</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" t="s">
+        <v>523</v>
+      </c>
+      <c r="D73" t="s">
+        <v>519</v>
+      </c>
+      <c r="E73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1">
+      <c r="A74" t="s">
+        <v>364</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>523</v>
+      </c>
+      <c r="D74" t="s">
+        <v>520</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1">
+      <c r="A75" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" t="s">
+        <v>434</v>
+      </c>
+      <c r="C75" t="s">
+        <v>523</v>
+      </c>
+      <c r="D75" t="s">
+        <v>521</v>
+      </c>
+      <c r="E75" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1">
+      <c r="A76" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" t="s">
+        <v>394</v>
+      </c>
+      <c r="C76" t="s">
+        <v>523</v>
+      </c>
+      <c r="D76" t="s">
+        <v>522</v>
+      </c>
+      <c r="E76" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F76">
+    <filterColumn colId="3"/>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter val="*ABS*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E15" sqref="E15:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1797,10 +3825,10 @@
       <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
@@ -1810,10 +3838,10 @@
       <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
@@ -1843,10 +3871,10 @@
       <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2508,6 +4536,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2537,8 +4566,8 @@
       <c r="B1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -2547,8 +4576,8 @@
       <c r="B2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
@@ -2567,10 +4596,10 @@
       <c r="A5" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
@@ -2756,6 +4785,7 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2763,8 +4793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3326,6 +5356,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3877,5 +5908,1221 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:C78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
+      <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1">
+      <c r="A12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1">
+      <c r="A17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1">
+      <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1">
+      <c r="A31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1">
+      <c r="A33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1">
+      <c r="A34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1">
+      <c r="A36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1">
+      <c r="A37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1">
+      <c r="A38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1">
+      <c r="A42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1">
+      <c r="A43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1">
+      <c r="A45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1">
+      <c r="A46" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1">
+      <c r="A49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1">
+      <c r="A50" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1">
+      <c r="A52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1">
+      <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1">
+      <c r="A55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1">
+      <c r="A56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1">
+      <c r="A57" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1">
+      <c r="A58" t="s">
+        <v>337</v>
+      </c>
+      <c r="B58" t="s">
+        <v>338</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>362</v>
+      </c>
+      <c r="B59" t="s">
+        <v>363</v>
+      </c>
+      <c r="C59" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" t="s">
+        <v>318</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C61" t="s">
+        <v>398</v>
+      </c>
+      <c r="D61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" t="s">
+        <v>322</v>
+      </c>
+      <c r="C62" t="s">
+        <v>417</v>
+      </c>
+      <c r="D62" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" t="s">
+        <v>428</v>
+      </c>
+      <c r="D63" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" t="s">
+        <v>432</v>
+      </c>
+      <c r="D65" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>360</v>
+      </c>
+      <c r="B66" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" t="s">
+        <v>438</v>
+      </c>
+      <c r="D66" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>339</v>
+      </c>
+      <c r="B67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C67" t="s">
+        <v>439</v>
+      </c>
+      <c r="D67" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1">
+      <c r="A71" t="s">
+        <v>333</v>
+      </c>
+      <c r="B71" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1">
+      <c r="A72" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1">
+      <c r="A74" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="C75" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D75" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="C76" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D76" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="C77" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D74">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Target"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:D74">
+    <sortCondition ref="C2:C74"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="2" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="20"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/metadata/utils/utils.xlsx
+++ b/metadata/utils/utils.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="24240" windowHeight="12300" tabRatio="904" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="24240" windowHeight="12300" tabRatio="904" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LDM  Objects" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Mapping_IFS_XSD!$A$1:$D$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Mapping_IFS_XSD!$A$1:$D$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet2!$A$1:$F$76</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="527">
   <si>
     <t>System Name</t>
   </si>
@@ -1608,6 +1608,9 @@
   </si>
   <si>
     <t>Target_Attribute_Name_ABS_Object</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2482,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -5914,11 +5917,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:C78"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5943,7 +5945,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -5965,7 +5967,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>258</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>262</v>
       </c>
@@ -6020,7 +6022,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>220</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -6053,7 +6055,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>341</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -6100,7 +6102,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -6111,7 +6113,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>343</v>
       </c>
@@ -6122,7 +6124,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -6133,7 +6135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>254</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>248</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -6166,7 +6168,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>210</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>226</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -6243,7 +6245,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>250</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>244</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -6331,7 +6333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>280</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -6364,7 +6366,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -6375,7 +6377,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>327</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>232</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>352</v>
       </c>
@@ -6441,7 +6443,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>202</v>
       </c>
@@ -6452,7 +6454,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>206</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>272</v>
       </c>
@@ -6485,7 +6487,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>270</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>228</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -6518,7 +6520,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>329</v>
       </c>
@@ -6528,8 +6530,11 @@
       <c r="C54" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1">
+      <c r="D54" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>323</v>
       </c>
@@ -6539,8 +6544,11 @@
       <c r="C55" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1">
+      <c r="D55" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>358</v>
       </c>
@@ -6550,8 +6558,11 @@
       <c r="C56" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1">
+      <c r="D56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>325</v>
       </c>
@@ -6561,8 +6572,11 @@
       <c r="C57" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1">
+      <c r="D57" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>337</v>
       </c>
@@ -6571,6 +6585,9 @@
       </c>
       <c r="C58" t="s">
         <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6727,7 +6744,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -6738,7 +6755,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>333</v>
       </c>
@@ -6749,7 +6766,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>238</v>
       </c>
@@ -6760,7 +6777,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -6771,7 +6788,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>240</v>
       </c>
@@ -6784,7 +6801,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="C75" s="1" t="s">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="D75" t="s">
         <v>367</v>
@@ -6802,19 +6819,21 @@
       <c r="C77" s="1" t="s">
         <v>445</v>
       </c>
+      <c r="D77" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="C78" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="D78" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D74">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Target"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:D78">
+    <filterColumn colId="3"/>
   </autoFilter>
   <sortState ref="A2:D74">
     <sortCondition ref="C2:C74"/>
